--- a/gd/交互系统/推送功能设计.xlsx
+++ b/gd/交互系统/推送功能设计.xlsx
@@ -4,340 +4,333 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="推送功能" sheetId="2" r:id="rId2"/>
+    <sheet name="任务拆分" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>推送功能设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>推送相关逻辑说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/交互系统/推送功能设计.xlsx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>指达到一定条件，推送给玩家的消息提示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送条件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送发出方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送文案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>服务端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>活力值已满，带领宠物战斗吧！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>玩家公会任务倒计时剩余15分钟时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会任务已完成，记得去领取奖励哦！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔刷新时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会任务结束且成功（失败不用提示）时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通天塔已刷新！重新挑战，领取丰厚奖励吧。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔刷新前24小时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>公会任务倒计时即将结束，没完成的要抓紧咯~</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>距离通天塔刷新仅剩1天，你是否已达塔顶？</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>竞技场竞技次数回满时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>竞技场竞技次数已满，快去向对手发出挑战吧！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>大冒险任务完成时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>探险小分队已成功归队，发现不少奇珍异宝，快去看看吧！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>活力值涨满时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可以进行免费召唤啦，去试试运气吧~</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>达到推送条件时，玩家在线不推送，玩家不在线才进行推送。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>游戏图标</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>游戏名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>玩家通过推送内容打开游戏，进行游戏登陆。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每天3次：12点，18点，21点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不可预测</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每月1次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不可预测</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>你的宠物都在等你指挥， 快回来帮他们找信仰之力。</t>
   </si>
   <si>
     <t>玩家22小时及46小时未登录过游戏时推送</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -353,38 +346,38 @@
       </rPr>
       <t>VP商店、通天塔商店、公会商店刷新时间一致）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>商店都重新进货了，快去瞧瞧吧~</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>九尾狐送来了一箱苹果， 给你补给体力。</t>
   </si>
   <si>
     <t>备注：程序需流出活动相关的推送接口，以便活动开启时进行推送。例如感恩节活动，推送“感恩节没事情干？ 来参加我们的感恩节活动， 很多奖励的啊。”</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不可预测，估摸1-2次左右</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不可预测，估摸1次左右</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每当进行一条推送时，会出现一个固定音效。所有推送都用同一个音效。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>音效效果待定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>有免费钻石抽取次数时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每天最多1次</t>
@@ -414,103 +407,153 @@
       <t>9点
 （商店实际每天自动刷新3次，还有1次是5点，该次刷新不推送）</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送怎么还有音效？这是哪的音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怎么区分玩家是否在线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>任务一直存在，推送条件是可领取时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>客户端发出的推送时间是有误差的，误差不影响么</t>
   </si>
   <si>
     <t>就是推送发到手机，手机响的那一下音效</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>领取活力任务可领取时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>不考虑这个影响了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>这是由手机操作系统来判定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送时，会根据玩家游戏设置的语言进行推送对应语言的提示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>推送内容多语言id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_linghuoli</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_guildtask1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_guildtask2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_tongtianta1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_tongtianta2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_pvp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_advanture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_summon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_shop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_huoli</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>push_long</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔刷新后8小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔刷新前27小时</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应工时（单位：d）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收+配置任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归三方问题、任务拆分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -601,8 +644,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +671,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -817,102 +879,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1416,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1478,17 +1547,17 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
@@ -1497,76 +1566,76 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1615,40 +1684,52 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12">
+        <v>42450</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1662,7 +1743,7 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1671,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1686,21 +1767,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1727,34 +1808,34 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>99</v>
+      <c r="A5" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>96</v>
+      <c r="A8" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
@@ -1776,10 +1857,10 @@
         <v>39</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>41</v>
@@ -1787,28 +1868,28 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>97</v>
+      <c r="E11" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.35">
@@ -1825,27 +1906,27 @@
         <v>49</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="41" t="s">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E13" s="1" t="s">
-        <v>45</v>
+      <c r="E13" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>50</v>
@@ -1858,37 +1939,37 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
+      <c r="E14" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
@@ -1896,22 +1977,22 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.35">
@@ -1922,19 +2003,19 @@
         <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.35">
@@ -1942,22 +2023,22 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="49.5" x14ac:dyDescent="0.35">
@@ -1965,22 +2046,22 @@
         <v>7</v>
       </c>
       <c r="D19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.35">
@@ -1994,13 +2075,13 @@
         <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>46</v>
@@ -2011,39 +2092,39 @@
         <v>45</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>112</v>
+        <v>75</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C23" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C24" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="C24" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2053,19 +2134,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="41" t="s">
-        <v>98</v>
+      <c r="A36" s="26" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4 A9:A35 A37:A1048576 A6:A7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
@@ -2075,4 +2156,84 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="49"/>
+    <col min="3" max="3" width="53.75" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="49"/>
+    <col min="8" max="8" width="19" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45">
+        <v>42450</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="3" spans="1:12" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/交互系统/推送功能设计.xlsx
+++ b/gd/交互系统/推送功能设计.xlsx
@@ -11,326 +11,329 @@
     <sheet name="推送功能" sheetId="2" r:id="rId2"/>
     <sheet name="任务拆分" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="推送时_若玩家等级未达到对应功能的开启等级_则不进行推送">推送功能!$C$25</definedName>
+  </definedNames>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>推送功能设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>推送相关逻辑说明</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>svn://10.21.2.47/gd/交互系统/推送功能设计.xlsx</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送功能</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>指达到一定条件，推送给玩家的消息提示。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送内容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>模块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送条件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送发出方</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送文案</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>服务端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>活力值已满，带领宠物战斗吧！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家公会任务倒计时剩余15分钟时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会任务已完成，记得去领取奖励哦！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会任务结束且成功（失败不用提示）时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔已刷新！重新挑战，领取丰厚奖励吧。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会任务倒计时即将结束，没完成的要抓紧咯~</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>距离通天塔刷新仅剩1天，你是否已达塔顶？</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>竞技场竞技次数回满时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>竞技场竞技次数已满，快去向对手发出挑战吧！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大冒险任务完成时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>探险小分队已成功归队，发现不少奇珍异宝，快去看看吧！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>活力值涨满时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>可以进行免费召唤啦，去试试运气吧~</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>达到推送条件时，玩家在线不推送，玩家不在线才进行推送。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏图标</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>游戏名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家通过推送内容打开游戏，进行游戏登陆。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天3次：12点，18点，21点</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不可预测</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每月1次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不可预测</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>你的宠物都在等你指挥， 快回来帮他们找信仰之力。</t>
   </si>
   <si>
     <t>玩家22小时及46小时未登录过游戏时推送</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>商店</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -346,38 +349,38 @@
       </rPr>
       <t>VP商店、通天塔商店、公会商店刷新时间一致）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>商店都重新进货了，快去瞧瞧吧~</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>九尾狐送来了一箱苹果， 给你补给体力。</t>
   </si>
   <si>
     <t>备注：程序需流出活动相关的推送接口，以便活动开启时进行推送。例如感恩节活动，推送“感恩节没事情干？ 来参加我们的感恩节活动， 很多奖励的啊。”</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不可预测，估摸1-2次左右</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不可预测，估摸1次左右</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每当进行一条推送时，会出现一个固定音效。所有推送都用同一个音效。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>音效效果待定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>有免费钻石抽取次数时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每天最多1次</t>
@@ -407,139 +410,158 @@
       <t>9点
 （商店实际每天自动刷新3次，还有1次是5点，该次刷新不推送）</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送怎么还有音效？这是哪的音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>怎么区分玩家是否在线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任务一直存在，推送条件是可领取时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端发出的推送时间是有误差的，误差不影响么</t>
   </si>
   <si>
     <t>就是推送发到手机，手机响的那一下音效</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>领取活力任务可领取时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>不考虑这个影响了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这是由手机操作系统来判定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送时，会根据玩家游戏设置的语言进行推送对应语言的提示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>推送内容多语言id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_linghuoli</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_guildtask1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_guildtask2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_tongtianta1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_tongtianta2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_pvp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_advanture</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_summon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_shop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_huoli</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>push_long</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔刷新后8小时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔刷新前27小时</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>客户端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>服务端</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回归三方问题、任务拆分</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送时，若玩家等级未达到对应功能的开启等级，则不进行推送</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充等级未到功能开启等级不进行推送的需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,8 +673,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +721,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -876,115 +920,123 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -998,8 +1050,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC66FF"/>
       <color rgb="FF00CC66"/>
-      <color rgb="FFCC66FF"/>
       <color rgb="FF0099FF"/>
     </mruColors>
   </colors>
@@ -1020,13 +1072,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3173744</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>160186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1058,13 +1110,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>612913</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1105,13 +1157,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>193812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>359465</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1152,13 +1204,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>646043</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>193813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657639</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1485,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1547,17 +1599,17 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
@@ -1566,76 +1618,76 @@
       <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1696,40 +1748,53 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="12">
+        <v>42453</v>
+      </c>
+      <c r="E25" s="50"/>
+      <c r="G25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1743,17 +1808,20 @@
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" location="推送时_若玩家等级未达到对应功能的开启等级_则不进行推送" display="补充等级未到功能开启等级不进行推送的需求"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1767,21 +1835,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1876,7 +1944,7 @@
       <c r="D11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="26" t="s">
@@ -1939,7 +2007,7 @@
       <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="28" t="s">
@@ -1956,7 +2024,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="28" t="s">
@@ -2117,28 +2185,36 @@
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="E27" s="1" t="s">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E33" s="17" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2146,8 +2222,8 @@
   <mergeCells count="1">
     <mergeCell ref="B1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A4 A9:A35 A37:A1048576 A6:A7">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A4 A9:A36 A38:A1048576 A6:A7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -2168,72 +2244,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="49"/>
-    <col min="3" max="3" width="53.75" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="49"/>
-    <col min="8" max="8" width="19" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="10" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="53.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="34"/>
+    <col min="8" max="8" width="19" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45">
+    <row r="1" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30">
         <v>42450</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:12" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="48" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="34">
         <v>0.5</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" s="47" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34">
         <v>1</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="34">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>